--- a/Income/AVB_inc.xlsx
+++ b/Income/AVB_inc.xlsx
@@ -1892,16 +1892,16 @@
         <v>0.6428</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.6583</v>
+        <v>0.6578</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.6676</v>
+        <v>0.6671</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.669</v>
+        <v>0.6685</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.6701</v>
+        <v>0.6696</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.6671</v>
@@ -2019,16 +2019,16 @@
         <v>0.2323</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.2334</v>
+        <v>0.2332</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.2519</v>
+        <v>0.2517</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.2586</v>
+        <v>0.2584</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.2702</v>
+        <v>0.27</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.2627</v>
@@ -2146,16 +2146,16 @@
         <v>0.3585</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.2802</v>
+        <v>0.28</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.3386</v>
+        <v>0.3383</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.3379</v>
+        <v>0.3376</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.344</v>
+        <v>0.3438</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.4395</v>
@@ -2276,13 +2276,13 @@
         <v>0.2793</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.3331</v>
+        <v>0.333</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.332</v>
+        <v>0.3319</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.3382</v>
+        <v>0.3381</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.4347</v>
@@ -2400,16 +2400,16 @@
         <v>0.5352</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.1599</v>
+        <v>0.151</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.1791</v>
+        <v>0.1702</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.0947</v>
+        <v>0.0859</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.065</v>
+        <v>0.0561</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.1923</v>
@@ -3969,16 +3969,16 @@
         <v>0.0</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.5469</v>
+        <v>0.5465</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.5589</v>
+        <v>0.5585</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.5605</v>
+        <v>0.5601</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.5699</v>
+        <v>0.5695</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.5587</v>
@@ -4096,16 +4096,16 @@
         <v>0.5352</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.5516</v>
+        <v>0.5424</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.5656</v>
+        <v>0.5564</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.5607</v>
+        <v>0.5515</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.5779</v>
+        <v>0.5686</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.5782</v>
